--- a/cea/databases/SG/assemblies/SUPPLY.xlsx
+++ b/cea/databases/SG/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\assemblies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC2D1EAE-0187-4685-AA84-6E4A11ED5CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2509E4-1BBD-B641-90D4-D8B9D0EAF308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="37680" yWindow="-10260" windowWidth="30240" windowHeight="17360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="23" r:id="rId1"/>
@@ -38,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno Fonseca</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>Description</t>
   </si>
@@ -99,15 +99,6 @@
   </si>
   <si>
     <t>DISTRICT</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>feedstock</t>
-  </si>
-  <si>
-    <t>efficiency</t>
   </si>
   <si>
     <t>COOLING</t>
@@ -207,16 +198,52 @@
   </si>
   <si>
     <t>efficiency: "Statistical Analysis of VCC+CT simulations using CEAs decentralized optimization script, with the consideration of partial loads"; CAPEX_USD2015: "Construction Cost Handbook Singapore 2016 (Arcadis) "</t>
+  </si>
+  <si>
+    <t>feedstock2</t>
+  </si>
+  <si>
+    <t>scale2</t>
+  </si>
+  <si>
+    <t>scale1</t>
+  </si>
+  <si>
+    <t>feedstock1</t>
+  </si>
+  <si>
+    <t>efficiency1</t>
+  </si>
+  <si>
+    <t>feedstock</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_AS2</t>
+  </si>
+  <si>
+    <t>aarea_pv</t>
+  </si>
+  <si>
+    <t>Singaporean consumer mix  90% + 20m2  PV onsite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -335,35 +362,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -382,22 +408,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,18 +432,24 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,23 +721,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,36 +745,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -775,24 +807,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,36 +832,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -856,12 +888,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -895,271 +927,273 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="11" max="11" width="43.81640625" customWidth="1"/>
+    <col min="1" max="1" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>20</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15">
+        <v>3</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0</v>
-      </c>
-      <c r="G2" s="17">
-        <v>0</v>
-      </c>
-      <c r="H2" s="16">
-        <v>20</v>
-      </c>
-      <c r="I2" s="16">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16">
-        <v>3</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <f>3.5168525/1.2808</f>
         <v>2.7458248750780765</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f>G4-63-79</f>
         <v>710</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>20</v>
       </c>
-      <c r="I3" s="18">
-        <v>3</v>
-      </c>
-      <c r="J3" s="16">
-        <v>3</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="17">
+        <v>3</v>
+      </c>
+      <c r="J3" s="15">
+        <v>3</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3.88</v>
+      </c>
+      <c r="G4" s="15">
+        <v>852</v>
+      </c>
+      <c r="H4" s="17">
+        <v>20</v>
+      </c>
+      <c r="I4" s="17">
+        <v>4</v>
+      </c>
+      <c r="J4" s="15">
+        <v>3</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="18" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="18">
-        <v>3.88</v>
-      </c>
-      <c r="G4" s="16">
-        <v>852</v>
-      </c>
-      <c r="H4" s="18">
-        <v>20</v>
-      </c>
-      <c r="I4" s="18">
-        <v>4</v>
-      </c>
-      <c r="J4" s="16">
-        <v>3</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>6.5</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <f>G6+430</f>
         <v>1944</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>50</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>2.5</v>
       </c>
-      <c r="J5" s="16">
-        <v>3</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="65" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="J5" s="15">
+        <v>3</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="23">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1514</v>
+      </c>
+      <c r="H6" s="23">
+        <v>50</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
+      <c r="J6" s="15">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G7" s="19">
+        <v>271</v>
+      </c>
+      <c r="H7" s="17">
+        <v>15</v>
+      </c>
+      <c r="I7" s="17">
+        <v>12</v>
+      </c>
+      <c r="J7" s="15">
+        <v>3</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="24">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1514</v>
-      </c>
-      <c r="H6" s="24">
-        <v>50</v>
-      </c>
-      <c r="I6" s="24">
-        <v>2</v>
-      </c>
-      <c r="J6" s="16">
-        <v>3</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="156" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="18">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G7" s="20">
-        <v>271</v>
-      </c>
-      <c r="H7" s="18">
-        <v>15</v>
-      </c>
-      <c r="I7" s="18">
-        <v>12</v>
-      </c>
-      <c r="J7" s="16">
-        <v>3</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1169,24 +1203,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,36 +1231,45 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1234,53 +1280,112 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>20</v>
       </c>
-      <c r="H2" s="4">
+      <c r="K2" s="4">
         <v>1.3</v>
       </c>
-      <c r="I2" s="4">
+      <c r="L2" s="4">
         <v>1.3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>0.99</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <f>ROUND(55*1.1288,1)</f>
         <v>62.1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="J3" s="5">
         <v>20</v>
       </c>
-      <c r="H3" s="5">
+      <c r="K3" s="5">
         <v>1.3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="L3" s="4">
         <v>1.3</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="26">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SG/assemblies/SUPPLY.xlsx
+++ b/cea/databases/SG/assemblies/SUPPLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2509E4-1BBD-B641-90D4-D8B9D0EAF308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFEDD11-24C7-4641-BBBB-2F3C1155EB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37680" yWindow="-10260" windowWidth="30240" windowHeight="17360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="23" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>Description</t>
   </si>
@@ -200,21 +200,6 @@
     <t>efficiency: "Statistical Analysis of VCC+CT simulations using CEAs decentralized optimization script, with the consideration of partial loads"; CAPEX_USD2015: "Construction Cost Handbook Singapore 2016 (Arcadis) "</t>
   </si>
   <si>
-    <t>feedstock2</t>
-  </si>
-  <si>
-    <t>scale2</t>
-  </si>
-  <si>
-    <t>scale1</t>
-  </si>
-  <si>
-    <t>feedstock1</t>
-  </si>
-  <si>
-    <t>efficiency1</t>
-  </si>
-  <si>
     <t>feedstock</t>
   </si>
   <si>
@@ -224,16 +209,19 @@
     <t>efficiency</t>
   </si>
   <si>
-    <t>SOLAR</t>
-  </si>
-  <si>
     <t>SUPPLY_ELECTRICITY_AS2</t>
   </si>
   <si>
-    <t>aarea_pv</t>
-  </si>
-  <si>
     <t>Singaporean consumer mix  90% + 20m2  PV onsite</t>
+  </si>
+  <si>
+    <t>area_pv</t>
+  </si>
+  <si>
+    <t>efficiency_pv</t>
+  </si>
+  <si>
+    <t>CAPEX_PV_USD2015kW</t>
   </si>
 </sst>
 </file>
@@ -325,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -359,6 +347,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -366,7 +367,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,10 +439,13 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -745,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -832,13 +836,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -959,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>14</v>
@@ -1207,7 +1211,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1216,10 +1220,11 @@
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1231,25 +1236,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -1280,16 +1285,16 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
       </c>
       <c r="H2" s="26">
         <v>0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="26">
         <v>0</v>
       </c>
       <c r="J2" s="4">
@@ -1321,18 +1326,17 @@
       <c r="E3" s="3">
         <v>0.99</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
       </c>
       <c r="H3" s="26">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
-        <f>ROUND(55*1.1288,1)</f>
-        <v>62.1</v>
+      <c r="I3" s="27">
+        <v>0</v>
       </c>
       <c r="J3" s="5">
         <v>20</v>
@@ -1349,10 +1353,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -1363,17 +1367,17 @@
       <c r="E4" s="4">
         <v>0.95</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="F4" s="27">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25">
         <v>20</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
+      <c r="H4" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I4" s="27">
+        <v>2000</v>
       </c>
       <c r="J4" s="4">
         <v>20</v>

--- a/cea/databases/SG/assemblies/SUPPLY.xlsx
+++ b/cea/databases/SG/assemblies/SUPPLY.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFEDD11-24C7-4641-BBBB-2F3C1155EB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E393467C-5A63-9A4E-A7C8-1BA2B296CE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30000" windowHeight="17340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="23" r:id="rId1"/>
     <sheet name="HOT_WATER" sheetId="26" r:id="rId2"/>
     <sheet name="COOLING" sheetId="24" r:id="rId3"/>
     <sheet name="ELECTRICITY" sheetId="25" r:id="rId4"/>
+    <sheet name="ELECTRICITY_PV" sheetId="27" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>Description</t>
   </si>
@@ -209,19 +210,25 @@
     <t>efficiency</t>
   </si>
   <si>
-    <t>SUPPLY_ELECTRICITY_AS2</t>
-  </si>
-  <si>
-    <t>Singaporean consumer mix  90% + 20m2  PV onsite</t>
-  </si>
-  <si>
-    <t>area_pv</t>
-  </si>
-  <si>
-    <t>efficiency_pv</t>
-  </si>
-  <si>
-    <t>CAPEX_PV_USD2015kW</t>
+    <t>area</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_PV_AS0</t>
+  </si>
+  <si>
+    <t>20 m2 Fotovoltaic installation Moncrytalline</t>
+  </si>
+  <si>
+    <t>SUPPLY_ELECTRICITY_PV_AS1</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>component</t>
   </si>
 </sst>
 </file>
@@ -367,7 +374,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,9 +445,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1208,11 +1212,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1222,13 +1224,11 @@
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,28 +1248,19 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1285,32 +1276,23 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>0</v>
       </c>
-      <c r="G2" s="26">
-        <v>0</v>
-      </c>
-      <c r="H2" s="26">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="G2" s="4">
         <v>20</v>
       </c>
-      <c r="K2" s="4">
+      <c r="H2" s="4">
         <v>1.3</v>
       </c>
-      <c r="L2" s="4">
+      <c r="I2" s="4">
         <v>1.3</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1326,73 +1308,94 @@
       <c r="E3" s="3">
         <v>0.99</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>1</v>
       </c>
-      <c r="G3" s="26">
-        <v>0</v>
-      </c>
-      <c r="H3" s="26">
-        <v>0</v>
-      </c>
-      <c r="I3" s="27">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="G3" s="5">
         <v>20</v>
       </c>
-      <c r="K3" s="5">
+      <c r="H3" s="5">
         <v>1.3</v>
       </c>
-      <c r="L3" s="4">
+      <c r="I3" s="4">
         <v>1.3</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1</v>
-      </c>
-      <c r="G4" s="25">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I4" s="27">
-        <v>2000</v>
-      </c>
-      <c r="J4" s="4">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7098DA34-9830-7545-9937-3D9EB32358F6}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="26">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cea/databases/SG/assemblies/SUPPLY.xlsx
+++ b/cea/databases/SG/assemblies/SUPPLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E393467C-5A63-9A4E-A7C8-1BA2B296CE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30F849-0DF9-1D4C-B13B-D3E728F26D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30000" windowHeight="17340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>efficiency</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>component</t>
+  </si>
+  <si>
+    <t>area_pv</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1352,10 +1352,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D3" s="26">
         <v>20</v>

--- a/cea/databases/SG/assemblies/SUPPLY.xlsx
+++ b/cea/databases/SG/assemblies/SUPPLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E30F849-0DF9-1D4C-B13B-D3E728F26D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F6768E-98C7-EE43-82A4-49ED92A56FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30000" windowHeight="17340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37660" yWindow="-12240" windowWidth="30000" windowHeight="17340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="23" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
   <si>
     <t>Description</t>
   </si>
@@ -222,13 +222,10 @@
     <t>SUPPLY_ELECTRICITY_PV_AS1</t>
   </si>
   <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
     <t>area_pv</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
   </si>
 </sst>
 </file>
@@ -240,7 +237,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +296,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,8 +322,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="40"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -367,6 +376,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="59"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -374,7 +398,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,6 +475,12 @@
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1214,7 +1244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I1" sqref="F1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1331,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7098DA34-9830-7545-9937-3D9EB32358F6}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1342,56 +1374,113 @@
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="25">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="F3" s="26">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>6</v>
       </c>
     </row>

--- a/cea/databases/SG/assemblies/SUPPLY.xlsx
+++ b/cea/databases/SG/assemblies/SUPPLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fonseca/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F6768E-98C7-EE43-82A4-49ED92A56FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC4AA94-372B-0D44-B9BF-3C0473AA9B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37660" yWindow="-12240" windowWidth="30000" windowHeight="17340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1469,7 +1469,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="26">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="5">
         <v>20</v>

--- a/cea/databases/SG/assemblies/SUPPLY.xlsx
+++ b/cea/databases/SG/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.santos\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\assemblies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/assemblies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC2D1EAE-0187-4685-AA84-6E4A11ED5CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6404D41B-F274-A24B-BF17-BC35734EAF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="9800" yWindow="31240" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="23" r:id="rId1"/>
@@ -38,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jimeno Fonseca</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>Description</t>
   </si>
@@ -207,16 +207,28 @@
   </si>
   <si>
     <t>efficiency: "Statistical Analysis of VCC+CT simulations using CEAs decentralized optimization script, with the consideration of partial loads"; CAPEX_USD2015: "Construction Cost Handbook Singapore 2016 (Arcadis) "</t>
+  </si>
+  <si>
+    <t>primary_components</t>
+  </si>
+  <si>
+    <t>secondary_components</t>
+  </si>
+  <si>
+    <t>tertiary_components</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -335,35 +347,34 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -382,22 +393,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="186" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,7 +417,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,8 +427,8 @@
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -689,23 +700,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,59 +725,77 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="J2" s="4">
         <v>20</v>
       </c>
-      <c r="H2" s="4">
+      <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="4">
+      <c r="L2" s="4">
         <v>1.3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -775,24 +805,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -856,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -895,270 +925,270 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
       <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="11" max="11" width="43.81640625" customWidth="1"/>
+    <col min="1" max="1" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15">
         <v>0</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>20</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="16">
-        <v>3</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="15">
+        <v>3</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <f>3.5168525/1.2808</f>
         <v>2.7458248750780765</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <f>G4-63-79</f>
         <v>710</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>20</v>
       </c>
-      <c r="I3" s="18">
-        <v>3</v>
-      </c>
-      <c r="J3" s="16">
-        <v>3</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="I3" s="17">
+        <v>3</v>
+      </c>
+      <c r="J3" s="15">
+        <v>3</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>3.88</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>852</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>20</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>4</v>
       </c>
-      <c r="J4" s="16">
-        <v>3</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="15">
+        <v>3</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>6.5</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <f>G6+430</f>
         <v>1944</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>50</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>2.5</v>
       </c>
-      <c r="J5" s="16">
-        <v>3</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="15">
+        <v>3</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="65" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>4.6399999999999997</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>1514</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>50</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>2</v>
       </c>
-      <c r="J6" s="16">
-        <v>3</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="15">
+        <v>3</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="156" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>271</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>15</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>12</v>
       </c>
-      <c r="J7" s="16">
-        <v>3</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="15">
+        <v>3</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1169,24 +1199,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>

--- a/cea/databases/SG/assemblies/SUPPLY.xlsx
+++ b/cea/databases/SG/assemblies/SUPPLY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zshi/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/assemblies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nimathia\Documents\GitHub\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\assemblies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6404D41B-F274-A24B-BF17-BC35734EAF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD659607-CF97-44B1-8DCC-5E322F264162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="31240" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEATING" sheetId="23" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>Description</t>
   </si>
@@ -219,6 +219,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>CH1</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>CT2</t>
+  </si>
+  <si>
+    <t>CT1</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>HEX1</t>
   </si>
 </sst>
 </file>
@@ -226,9 +244,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -347,7 +365,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -360,16 +378,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -393,22 +411,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,7 +435,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,21 +721,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -809,20 +827,20 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -886,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -926,269 +944,333 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="11" max="11" width="43.83203125" customWidth="1"/>
+    <col min="1" max="1" width="65.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="21" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="43.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="C2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="15">
         <v>0</v>
       </c>
-      <c r="G2" s="16">
+      <c r="J2" s="16">
         <v>0</v>
       </c>
-      <c r="H2" s="15">
+      <c r="K2" s="15">
         <v>20</v>
       </c>
-      <c r="I2" s="15">
+      <c r="L2" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="15">
-        <v>3</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="M2" s="15">
+        <v>3</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="18">
+      <c r="I3" s="18">
         <f>3.5168525/1.2808</f>
         <v>2.7458248750780765</v>
       </c>
-      <c r="G3" s="19">
-        <f>G4-63-79</f>
+      <c r="J3" s="19">
+        <f>J4-63-79</f>
         <v>710</v>
       </c>
-      <c r="H3" s="17">
+      <c r="K3" s="17">
         <v>20</v>
       </c>
-      <c r="I3" s="17">
-        <v>3</v>
-      </c>
-      <c r="J3" s="15">
-        <v>3</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="L3" s="17">
+        <v>3</v>
+      </c>
+      <c r="M3" s="15">
+        <v>3</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="17">
+      <c r="I4" s="17">
         <v>3.88</v>
       </c>
-      <c r="G4" s="15">
+      <c r="J4" s="15">
         <v>852</v>
       </c>
-      <c r="H4" s="17">
+      <c r="K4" s="17">
         <v>20</v>
       </c>
-      <c r="I4" s="17">
+      <c r="L4" s="17">
         <v>4</v>
       </c>
-      <c r="J4" s="15">
-        <v>3</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="M4" s="15">
+        <v>3</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15">
+      <c r="I5" s="15">
         <v>6.5</v>
       </c>
-      <c r="G5" s="20">
-        <f>G6+430</f>
+      <c r="J5" s="20">
+        <f>J6+430</f>
         <v>1944</v>
       </c>
-      <c r="H5" s="17">
+      <c r="K5" s="17">
         <v>50</v>
       </c>
-      <c r="I5" s="17">
+      <c r="L5" s="17">
         <v>2.5</v>
       </c>
-      <c r="J5" s="15">
-        <v>3</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="M5" s="15">
+        <v>3</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="78" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="H6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="23">
+      <c r="I6" s="23">
         <v>4.6399999999999997</v>
       </c>
-      <c r="G6" s="15">
+      <c r="J6" s="15">
         <v>1514</v>
       </c>
-      <c r="H6" s="23">
+      <c r="K6" s="23">
         <v>50</v>
       </c>
-      <c r="I6" s="23">
+      <c r="L6" s="23">
         <v>2</v>
       </c>
-      <c r="J6" s="15">
-        <v>3</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="M6" s="15">
+        <v>3</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="156" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="17">
+      <c r="I7" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G7" s="19">
+      <c r="J7" s="19">
         <v>271</v>
       </c>
-      <c r="H7" s="17">
+      <c r="K7" s="17">
         <v>15</v>
       </c>
-      <c r="I7" s="17">
+      <c r="L7" s="17">
         <v>12</v>
       </c>
-      <c r="J7" s="15">
-        <v>3</v>
-      </c>
-      <c r="K7" s="10" t="s">
+      <c r="M7" s="15">
+        <v>3</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1202,21 +1284,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1280,7 +1362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
